--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N2">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O2">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P2">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q2">
-        <v>7973.879986762888</v>
+        <v>4674.75276942656</v>
       </c>
       <c r="R2">
-        <v>71764.91988086599</v>
+        <v>42072.77492483904</v>
       </c>
       <c r="S2">
-        <v>0.009785816090790002</v>
+        <v>0.01667690687704802</v>
       </c>
       <c r="T2">
-        <v>0.01043746500059263</v>
+        <v>0.01766807657352718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.067574</v>
       </c>
       <c r="O3">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P3">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q3">
-        <v>10.90933780492133</v>
+        <v>11.52256187488578</v>
       </c>
       <c r="R3">
-        <v>98.18404024429201</v>
+        <v>103.703056873972</v>
       </c>
       <c r="S3">
-        <v>1.338830953168162E-05</v>
+        <v>4.110606503711763E-05</v>
       </c>
       <c r="T3">
-        <v>1.427985268244976E-05</v>
+        <v>4.35491491357862E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N4">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O4">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P4">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q4">
-        <v>1794.543187644685</v>
+        <v>921.6949002275438</v>
       </c>
       <c r="R4">
-        <v>16150.88868880217</v>
+        <v>8295.254102047893</v>
       </c>
       <c r="S4">
-        <v>0.002202324292618318</v>
+        <v>0.003288092606880328</v>
       </c>
       <c r="T4">
-        <v>0.002348979636536672</v>
+        <v>0.003483516001349377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N5">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O5">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P5">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q5">
-        <v>1586.03228003213</v>
+        <v>206.0199699080563</v>
       </c>
       <c r="R5">
-        <v>9516.19368019278</v>
+        <v>1236.119819448338</v>
       </c>
       <c r="S5">
-        <v>0.001946432631569063</v>
+        <v>0.0007349641836546467</v>
       </c>
       <c r="T5">
-        <v>0.001384031900833418</v>
+        <v>0.0005190971991527459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N6">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O6">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P6">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q6">
-        <v>1021.574498003609</v>
+        <v>2349.128283339835</v>
       </c>
       <c r="R6">
-        <v>9194.170482032483</v>
+        <v>21142.15455005851</v>
       </c>
       <c r="S6">
-        <v>0.001253710888187425</v>
+        <v>0.008380377648998908</v>
       </c>
       <c r="T6">
-        <v>0.001337196958834505</v>
+        <v>0.008878454206719023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N7">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O7">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P7">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q7">
-        <v>78332.60912980263</v>
+        <v>43479.13405563185</v>
       </c>
       <c r="R7">
-        <v>704993.4821682236</v>
+        <v>391312.2065006867</v>
       </c>
       <c r="S7">
-        <v>0.09613243591933943</v>
+        <v>0.1551092657739429</v>
       </c>
       <c r="T7">
-        <v>0.1025340069771142</v>
+        <v>0.1643279779135335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.067574</v>
       </c>
       <c r="O8">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P8">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q8">
         <v>107.169520428762</v>
@@ -948,10 +948,10 @@
         <v>964.525683858858</v>
       </c>
       <c r="S8">
-        <v>0.0001315220719643385</v>
+        <v>0.0003823209911628326</v>
       </c>
       <c r="T8">
-        <v>0.0001402802801725642</v>
+        <v>0.0004050437288720663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N9">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O9">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P9">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q9">
-        <v>17628.96485997755</v>
+        <v>8572.538078907099</v>
       </c>
       <c r="R9">
-        <v>158660.6837397979</v>
+        <v>77152.84271016388</v>
       </c>
       <c r="S9">
-        <v>0.02163486386516011</v>
+        <v>0.0305820278190709</v>
       </c>
       <c r="T9">
-        <v>0.02307555468957981</v>
+        <v>0.03239962981532978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N10">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O10">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P10">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q10">
-        <v>15580.62660401825</v>
+        <v>1916.159063716309</v>
       </c>
       <c r="R10">
-        <v>93483.75962410949</v>
+        <v>11496.95438229786</v>
       </c>
       <c r="S10">
-        <v>0.01912107365288922</v>
+        <v>0.006835785301032792</v>
       </c>
       <c r="T10">
-        <v>0.01359624550295928</v>
+        <v>0.00482804071639362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N11">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O11">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P11">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q11">
-        <v>10035.59070138167</v>
+        <v>21848.86957299734</v>
       </c>
       <c r="R11">
-        <v>90320.31631243505</v>
+        <v>196639.826156976</v>
       </c>
       <c r="S11">
-        <v>0.01231601743808432</v>
+        <v>0.07794456331908671</v>
       </c>
       <c r="T11">
-        <v>0.01313615540738371</v>
+        <v>0.08257709438355561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N12">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O12">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P12">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q12">
-        <v>90230.56386413658</v>
+        <v>54482.94958721384</v>
       </c>
       <c r="R12">
-        <v>812075.0747772292</v>
+        <v>490346.5462849246</v>
       </c>
       <c r="S12">
-        <v>0.1107340096927119</v>
+        <v>0.194364733595168</v>
       </c>
       <c r="T12">
-        <v>0.1181079165825259</v>
+        <v>0.2059165420584576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.067574</v>
       </c>
       <c r="O13">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P13">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q13">
-        <v>123.4475190442398</v>
+        <v>134.2922692833578</v>
       </c>
       <c r="R13">
-        <v>1111.027671398158</v>
+        <v>1208.63042355022</v>
       </c>
       <c r="S13">
-        <v>0.0001514989842130351</v>
+        <v>0.0004790798101223944</v>
       </c>
       <c r="T13">
-        <v>0.0001615874783133426</v>
+        <v>0.0005075532790629586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N14">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O14">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P14">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q14">
-        <v>20306.63164839779</v>
+        <v>10742.09894313819</v>
       </c>
       <c r="R14">
-        <v>182759.6848355801</v>
+        <v>96678.89048824368</v>
       </c>
       <c r="S14">
-        <v>0.0249209874069485</v>
+        <v>0.03832180921104128</v>
       </c>
       <c r="T14">
-        <v>0.02658050503166936</v>
+        <v>0.04059941478168314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N15">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O15">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P15">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q15">
-        <v>17947.17090946816</v>
+        <v>2401.105724321938</v>
       </c>
       <c r="R15">
-        <v>107683.025456809</v>
+        <v>14406.63434593163</v>
       </c>
       <c r="S15">
-        <v>0.02202537712651609</v>
+        <v>0.00856580412730059</v>
       </c>
       <c r="T15">
-        <v>0.0156613817897264</v>
+        <v>0.006049934173475497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N16">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O16">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P16">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q16">
-        <v>11559.89846061235</v>
+        <v>27378.43991925209</v>
       </c>
       <c r="R16">
-        <v>104039.0861455112</v>
+        <v>246405.9592732688</v>
       </c>
       <c r="S16">
-        <v>0.01418669964327904</v>
+        <v>0.09767098186632651</v>
       </c>
       <c r="T16">
-        <v>0.01513140852299535</v>
+        <v>0.1034759262822783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N17">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O17">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P17">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q17">
-        <v>32470.17081192354</v>
+        <v>23159.78142806592</v>
       </c>
       <c r="R17">
-        <v>194821.0248715412</v>
+        <v>138958.6885683955</v>
       </c>
       <c r="S17">
-        <v>0.03984849540368055</v>
+        <v>0.08262116463027837</v>
       </c>
       <c r="T17">
-        <v>0.0283347021337434</v>
+        <v>0.05835442883359377</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.067574</v>
       </c>
       <c r="O18">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P18">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q18">
-        <v>44.423550712929</v>
+        <v>57.085374922716</v>
       </c>
       <c r="R18">
-        <v>266.541304277574</v>
+        <v>342.5122495362959</v>
       </c>
       <c r="S18">
-        <v>5.451808882228831E-05</v>
+        <v>0.0002036487336514883</v>
       </c>
       <c r="T18">
-        <v>3.876567463919418E-05</v>
+        <v>0.0001438348828426243</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N19">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O19">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P19">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q19">
-        <v>7307.499476907965</v>
+        <v>4566.284782425281</v>
       </c>
       <c r="R19">
-        <v>43844.99686144779</v>
+        <v>27397.70869455169</v>
       </c>
       <c r="S19">
-        <v>0.008968011317360691</v>
+        <v>0.01628995368239104</v>
       </c>
       <c r="T19">
-        <v>0.006376801102156163</v>
+        <v>0.0115054168882202</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N20">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O20">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P20">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q20">
-        <v>6458.429162635853</v>
+        <v>1020.669478842321</v>
       </c>
       <c r="R20">
-        <v>25833.71665054341</v>
+        <v>4082.677915369283</v>
       </c>
       <c r="S20">
-        <v>0.007926003416889484</v>
+        <v>0.003641178622797311</v>
       </c>
       <c r="T20">
-        <v>0.003757246769353185</v>
+        <v>0.001714483205889201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N21">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O21">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P21">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q21">
-        <v>4159.919449797032</v>
+        <v>11638.11227503953</v>
       </c>
       <c r="R21">
-        <v>24959.51669878219</v>
+        <v>69828.67365023716</v>
       </c>
       <c r="S21">
-        <v>0.00510519430387617</v>
+        <v>0.0415182843261403</v>
       </c>
       <c r="T21">
-        <v>0.003630103432257922</v>
+        <v>0.02932391208529134</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>503.7454223333334</v>
+        <v>279.6078796666666</v>
       </c>
       <c r="N22">
-        <v>1511.236267</v>
+        <v>838.823639</v>
       </c>
       <c r="O22">
-        <v>0.6437328705599147</v>
+        <v>0.5726675140320879</v>
       </c>
       <c r="P22">
-        <v>0.6724324423344897</v>
+        <v>0.5775260287976519</v>
       </c>
       <c r="Q22">
-        <v>315532.4370548879</v>
+        <v>34729.49572011579</v>
       </c>
       <c r="R22">
-        <v>2839791.933493991</v>
+        <v>312565.4614810421</v>
       </c>
       <c r="S22">
-        <v>0.3872321134533929</v>
+        <v>0.1238954431556506</v>
       </c>
       <c r="T22">
-        <v>0.4130183516405136</v>
+        <v>0.13125900341854</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.067574</v>
       </c>
       <c r="O23">
-        <v>0.0008807129468624942</v>
+        <v>0.001411539217074187</v>
       </c>
       <c r="P23">
-        <v>0.0009199778121307423</v>
+        <v>0.001423514724607417</v>
       </c>
       <c r="Q23">
-        <v>431.6907139254902</v>
+        <v>85.60297903576689</v>
       </c>
       <c r="R23">
-        <v>3885.216425329412</v>
+        <v>770.4268113219019</v>
       </c>
       <c r="S23">
-        <v>0.0005297854923311507</v>
+        <v>0.0003053836171003536</v>
       </c>
       <c r="T23">
-        <v>0.0005650645263231916</v>
+        <v>0.0003235336846939819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>113.3692653333333</v>
+        <v>55.12872433333333</v>
       </c>
       <c r="N24">
-        <v>340.107796</v>
+        <v>165.386173</v>
       </c>
       <c r="O24">
-        <v>0.1448738179460895</v>
+        <v>0.1129096560274583</v>
       </c>
       <c r="P24">
-        <v>0.1513327339445596</v>
+        <v>0.1138675822543568</v>
       </c>
       <c r="Q24">
-        <v>71011.42559679362</v>
+        <v>6847.420745339569</v>
       </c>
       <c r="R24">
-        <v>639102.8303711426</v>
+        <v>61626.78670805612</v>
       </c>
       <c r="S24">
-        <v>0.08714763106400185</v>
+        <v>0.02442777270807469</v>
       </c>
       <c r="T24">
-        <v>0.09295089348461756</v>
+        <v>0.02587960476777437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>100.196705</v>
+        <v>12.3225355</v>
       </c>
       <c r="N25">
-        <v>200.39341</v>
+        <v>24.645071</v>
       </c>
       <c r="O25">
-        <v>0.12804069212487</v>
+        <v>0.02523790023288966</v>
       </c>
       <c r="P25">
-        <v>0.08916609074075163</v>
+        <v>0.01696801249072354</v>
       </c>
       <c r="Q25">
-        <v>62760.49193078226</v>
+        <v>1530.555735476447</v>
       </c>
       <c r="R25">
-        <v>376562.9515846936</v>
+        <v>9183.334412858681</v>
       </c>
       <c r="S25">
-        <v>0.07702180529700615</v>
+        <v>0.00546016799810432</v>
       </c>
       <c r="T25">
-        <v>0.05476718477787935</v>
+        <v>0.003856457195812481</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.53739933333333</v>
+        <v>140.5068483333333</v>
       </c>
       <c r="N26">
-        <v>193.612198</v>
+        <v>421.520545</v>
       </c>
       <c r="O26">
-        <v>0.08247190642226332</v>
+        <v>0.2877733904904901</v>
       </c>
       <c r="P26">
-        <v>0.0861487551680685</v>
+        <v>0.2902148617326603</v>
       </c>
       <c r="Q26">
-        <v>40424.47234261185</v>
+        <v>17452.05461897859</v>
       </c>
       <c r="R26">
-        <v>363820.2510835067</v>
+        <v>157068.4915708073</v>
       </c>
       <c r="S26">
-        <v>0.04961028414883637</v>
+        <v>0.06225918332993757</v>
       </c>
       <c r="T26">
-        <v>0.05291389084659701</v>
+        <v>0.06595947477481598</v>
       </c>
     </row>
   </sheetData>
